--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,6 +520,305 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TC_LOGIN_02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Login with valid email and invalid password</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1. Enter valid email
+2. Enter invalid password
+3. Click Login</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Email:superadmin
+Password:admin</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Error message should be displayed</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expected: Error message should be displayed | Actual: Locator expected to be visible
+Actual value: &lt;element(s) not found&gt; 
+Call log:
+  - Expect "to_be_visible" with timeout 5000ms
+  - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TC_LOGIN_03</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Login with invalid email and valid password</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1. Enter invalid email
+2. Enter valid password
+3. Click Login</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Email:super
+Password:superadmin</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Error message should be displayed</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expected: Error message should be displayed | Actual: Locator expected to be visible
+Actual value: &lt;element(s) not found&gt; 
+Call log:
+  - Expect "to_be_visible" with timeout 5000ms
+  - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TC_LOGIN_04</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Login with invalid email and invalid password</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1. Enter invalid email
+2. Enter invalid password
+3. Click Login</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Email:superadmin
+Password:superadmin</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Error message should be displayed</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expected: Error message should be displayed | Actual: Locator expected to be visible
+Actual value: &lt;element(s) not found&gt; 
+Call log:
+  - Expect "to_be_visible" with timeout 5000ms
+  - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TC_LOGIN_05</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Login with empty email and empty password</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1. Leave fields empty
+2. Click Login</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Email:superadmin
+Password:superadmin</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Validation message should be shown</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expected: Validation message should be shown | Actual: Locator expected to be visible
+Actual value: &lt;element(s) not found&gt; 
+Call log:
+  - Expect "to_be_visible" with timeout 5000ms
+  - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TC_LOGIN_06</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Login with empty email</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1. Leave email empty
+2. Enter password
+3. Click Login</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Email:superadmin
+Password:superadmin</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Email required validation should appear</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expected: Email required validation should appear | Actual: Locator expected to be visible
+Actual value: &lt;element(s) not found&gt; 
+Call log:
+  - Expect "to_be_visible" with timeout 5000ms
+  - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TC_LOGIN_07</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Login</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Login with empty password</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1. Enter email
+2. Leave password empty
+3. Click Login</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Email:superadmin
+Password:superadmin</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Password required validation should appear</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Failed</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expected: Password required validation should appear | Actual: Locator expected to be visible
+Actual value: &lt;element(s) not found&gt; 
+Call log:
+  - Expect "to_be_visible" with timeout 5000ms
+  - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
+</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ams-psms\AMS_PSMS_AUTOMATION\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58814963-1078-4ECC-8D95-E43D3F7DD735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C9A03-60E0-4F3D-95B6-7CFAE6BC0E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
   <si>
     <t>TC ID</t>
   </si>
@@ -334,12 +334,92 @@
   <si>
     <t>successfully deleted the skills</t>
   </si>
+  <si>
+    <t>document module</t>
+  </si>
+  <si>
+    <t>DC_01</t>
+  </si>
+  <si>
+    <t>usermanagement</t>
+  </si>
+  <si>
+    <t>Document Categories</t>
+  </si>
+  <si>
+    <t>Search document category</t>
+  </si>
+  <si>
+    <t>email:superadmin,password:superadmin,name:welding prores</t>
+  </si>
+  <si>
+    <t>Enter keyword in Search field</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
+  </si>
+  <si>
+    <t>DC_02</t>
+  </si>
+  <si>
+    <t>Add new document category</t>
+  </si>
+  <si>
+    <t>Click Add New → Enter valid details → Click Save</t>
+  </si>
+  <si>
+    <t>email:superadmin,
+password:superadmin,
+categoryType:QUALITY,
+parentCategory:3,
+displayOrder:11,
+description:Automation add category</t>
+  </si>
+  <si>
+    <t>Document category is created successfully</t>
+  </si>
+  <si>
+    <t>DC_03</t>
+  </si>
+  <si>
+    <t>Edit document category</t>
+  </si>
+  <si>
+    <t>Click Edit icon → Update details → Click Save</t>
+  </si>
+  <si>
+    <t>email:superadmin,
+password:superadmin,
+search:data srikari,
+name:impetussolutions ramus,
+description:Automation updated category</t>
+  </si>
+  <si>
+    <t>Document category is updated successfully</t>
+  </si>
+  <si>
+    <t>DC_04</t>
+  </si>
+  <si>
+    <t>Delete document category</t>
+  </si>
+  <si>
+    <t>Click Delete icon → Confirm deletion</t>
+  </si>
+  <si>
+    <t>email:superadmin,
+password:superadmin,
+search:jjjjj</t>
+  </si>
+  <si>
+    <t>Document category is deleted successfully</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +432,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -361,7 +447,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -384,16 +470,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -698,15 +802,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:AA28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:AA28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -732,7 +836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -758,7 +862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -784,7 +888,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -810,7 +914,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -836,7 +940,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -862,7 +966,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -888,7 +992,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -914,12 +1018,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>46</v>
       </c>
@@ -939,7 +1043,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="145" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -959,7 +1063,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="203" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -979,7 +1083,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="116" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -999,12 +1103,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>71</v>
       </c>
@@ -1021,7 +1125,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -1038,7 +1142,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="174" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
@@ -1055,7 +1159,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="116" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
@@ -1071,6 +1175,191 @@
       <c r="F22" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="3"/>
+      <c r="Q25" s="3"/>
+      <c r="R25" s="3"/>
+      <c r="S25" s="3"/>
+      <c r="T25" s="3"/>
+      <c r="U25" s="3"/>
+      <c r="V25" s="3"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="3"/>
+      <c r="Z25" s="3"/>
+      <c r="AA25" s="3"/>
+    </row>
+    <row r="26" spans="1:27" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
+      <c r="O26" s="3"/>
+      <c r="P26" s="3"/>
+      <c r="Q26" s="3"/>
+      <c r="R26" s="3"/>
+      <c r="S26" s="3"/>
+      <c r="T26" s="3"/>
+      <c r="U26" s="3"/>
+      <c r="V26" s="3"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="3"/>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="3"/>
+    </row>
+    <row r="27" spans="1:27" ht="225.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="3"/>
+      <c r="Q27" s="3"/>
+      <c r="R27" s="3"/>
+      <c r="S27" s="3"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="3"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="3"/>
+      <c r="Z27" s="3"/>
+      <c r="AA27" s="3"/>
+    </row>
+    <row r="28" spans="1:27" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
+      <c r="N28" s="3"/>
+      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
+      <c r="Q28" s="3"/>
+      <c r="R28" s="3"/>
+      <c r="S28" s="3"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="3"/>
+      <c r="V28" s="3"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="3"/>
+      <c r="Z28" s="3"/>
+      <c r="AA28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015C9A03-60E0-4F3D-95B6-7CFAE6BC0E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A424BE-1793-4AA5-A723-395095DD15BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Project data" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
   <si>
     <t>TC ID</t>
   </si>
@@ -92,8 +93,7 @@
   </si>
   <si>
     <t xml:space="preserve">Expected: Error message should be displayed | Actual: Locator expected to be visible
-Actual value: None
-Error: element(s) not found 
+Actual value: &lt;element(s) not found&gt; 
 Call log:
   - Expect "to_be_visible" with timeout 5000ms
   - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
@@ -140,8 +140,7 @@
   </si>
   <si>
     <t xml:space="preserve">Expected: Validation message should be shown | Actual: Locator expected to be visible
-Actual value: None
-Error: element(s) not found 
+Actual value: &lt;element(s) not found&gt; 
 Call log:
   - Expect "to_be_visible" with timeout 5000ms
   - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
@@ -163,8 +162,7 @@
   </si>
   <si>
     <t xml:space="preserve">Expected: Email required validation should appear | Actual: Locator expected to be visible
-Actual value: None
-Error: element(s) not found 
+Actual value: &lt;element(s) not found&gt; 
 Call log:
   - Expect "to_be_visible" with timeout 5000ms
   - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
@@ -186,8 +184,7 @@
   </si>
   <si>
     <t xml:space="preserve">Expected: Password required validation should appear | Actual: Locator expected to be visible
-Actual value: None
-Error: element(s) not found 
+Actual value: &lt;element(s) not found&gt; 
 Call log:
   - Expect "to_be_visible" with timeout 5000ms
   - waiting for locator(".error, .error-message, .alert-danger, .validation-error")
@@ -195,6 +192,18 @@
   </si>
   <si>
     <t>Machines_module</t>
+  </si>
+  <si>
+    <t>TC_Machine1</t>
+  </si>
+  <si>
+    <t>Machines</t>
+  </si>
+  <si>
+    <t>Save the machines with valid data</t>
+  </si>
+  <si>
+    <t>1.First login with valid credentials 2.Go to Machines tab 3.Enter valid machine information 4.Click on Save button</t>
   </si>
   <si>
     <t>Email:superadmin,
@@ -204,18 +213,6 @@
 Status_Index:1</t>
   </si>
   <si>
-    <t>TC_Machine1</t>
-  </si>
-  <si>
-    <t>Machines</t>
-  </si>
-  <si>
-    <t>Save the machines with valid data</t>
-  </si>
-  <si>
-    <t>1.First login with valid credentials 2.Go to Machines tab 3.Enter valid machine information 4.Click on Save button</t>
-  </si>
-  <si>
     <t>successfully created the machine</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>Search the machines</t>
+  </si>
+  <si>
+    <t>1.First login with valid credentials 2.Go to Machines tab 3.search the machines</t>
   </si>
   <si>
     <t>Email:superadmin,
@@ -233,16 +233,10 @@
     <t>successfully search the machines</t>
   </si>
   <si>
-    <t>1.First login with valid credentials 2.Go to Machines tab 3.search the machines</t>
-  </si>
-  <si>
     <t>TC_Machine3</t>
   </si>
   <si>
     <t>update the machine</t>
-  </si>
-  <si>
-    <t>successfully updated the code</t>
   </si>
   <si>
     <t>Email:superadmin,
@@ -251,6 +245,9 @@
 Location:hyd-telangana</t>
   </si>
   <si>
+    <t>successfully updated the code</t>
+  </si>
+  <si>
     <t>TC_Machine4</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
   </si>
   <si>
     <t>1.First login with valid credentials 2.Go to Machines tab 3.search the machines 4.delete the machine</t>
-  </si>
-  <si>
-    <t>delete the machine successfully</t>
   </si>
   <si>
     <t>Email:superadmin,
@@ -271,7 +265,13 @@
 search:machines</t>
   </si>
   <si>
+    <t>delete the machine successfully</t>
+  </si>
+  <si>
     <t>Skills-module</t>
+  </si>
+  <si>
+    <t>TC_Skill1</t>
   </si>
   <si>
     <t>skills</t>
@@ -288,9 +288,6 @@
     <t>skills created successfully</t>
   </si>
   <si>
-    <t>TC_Skill1</t>
-  </si>
-  <si>
     <t>TC_Skill2</t>
   </si>
   <si>
@@ -309,9 +306,6 @@
   </si>
   <si>
     <t>update the skills</t>
-  </si>
-  <si>
-    <t>successfully updated the skills</t>
   </si>
   <si>
     <t>Email:superadmin,
@@ -321,6 +315,9 @@
 skill_code:68</t>
   </si>
   <si>
+    <t>successfully updated the skills</t>
+  </si>
+  <si>
     <t>TC_Skill4</t>
   </si>
   <si>
@@ -350,9 +347,6 @@
     <t>Search document category</t>
   </si>
   <si>
-    <t>email:superadmin,password:superadmin,name:welding prores</t>
-  </si>
-  <si>
     <t>Enter keyword in Search field</t>
   </si>
   <si>
@@ -368,58 +362,108 @@
     <t>Click Add New → Enter valid details → Click Save</t>
   </si>
   <si>
-    <t>email:superadmin,
+    <t>Document category is created successfully</t>
+  </si>
+  <si>
+    <t>DC_03</t>
+  </si>
+  <si>
+    <t>Edit document category</t>
+  </si>
+  <si>
+    <t>Click Edit icon → Update details → Click Save</t>
+  </si>
+  <si>
+    <t>Document category is updated successfully</t>
+  </si>
+  <si>
+    <t>DC_04</t>
+  </si>
+  <si>
+    <t>Delete document category</t>
+  </si>
+  <si>
+    <t>Click Delete icon → Confirm deletion</t>
+  </si>
+  <si>
+    <t>Document category is deleted successfully</t>
+  </si>
+  <si>
+    <t>email:superadmin,password:superadmin,name:bbbrrrrr</t>
+  </si>
+  <si>
+    <t>email:superadmin,password:superadmin,categoryType:QUALITY,parentCategory:3,displayOrder:11,description:Automation add category</t>
+  </si>
+  <si>
+    <t>email:superadmin,password:superadmin,search:data srikari,name:impetussolutions ramus,description:Automation updated category</t>
+  </si>
+  <si>
+    <t>email:superadmin,password:superadmin,search:jjjjj</t>
+  </si>
+  <si>
+    <t>users module</t>
+  </si>
+  <si>
+    <t>USR_01</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>not Executed</t>
+  </si>
+  <si>
+    <t>USR_02</t>
+  </si>
+  <si>
+    <t>Add Uers</t>
+  </si>
+  <si>
+    <t>Edit users</t>
+  </si>
+  <si>
+    <t>user edited successfully</t>
+  </si>
+  <si>
+    <t>email:E04,
 password:superadmin,
-categoryType:QUALITY,
-parentCategory:3,
-displayOrder:11,
-description:Automation add category</t>
-  </si>
-  <si>
-    <t>Document category is created successfully</t>
-  </si>
-  <si>
-    <t>DC_03</t>
-  </si>
-  <si>
-    <t>Edit document category</t>
-  </si>
-  <si>
-    <t>Click Edit icon → Update details → Click Save</t>
-  </si>
-  <si>
-    <t>email:superadmin,
-password:superadmin,
-search:data srikari,
-name:impetussolutions ramus,
-description:Automation updated category</t>
-  </si>
-  <si>
-    <t>Document category is updated successfully</t>
-  </si>
-  <si>
-    <t>DC_04</t>
-  </si>
-  <si>
-    <t>Delete document category</t>
-  </si>
-  <si>
-    <t>Click Delete icon → Confirm deletion</t>
-  </si>
-  <si>
-    <t>email:superadmin,
-password:superadmin,
-search:jjjjj</t>
-  </si>
-  <si>
-    <t>Document category is deleted successfully</t>
+search:EMP80598,
+designation:Manager,
+department:Engineering,
+position:data enginner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">email:E04
+password:superadmin
+fullname:lakshmi reddy
+designation:senior lead
+useremail:lakshmi@gmail.com
+department:Engineering
+role:test
+position:tester
+</t>
+  </si>
+  <si>
+    <t>PRJ_01</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>Add New</t>
+  </si>
+  <si>
+    <t>Click + New button</t>
+  </si>
+  <si>
+    <t>Project Created Successfully</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,12 +476,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -447,7 +485,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -470,34 +508,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -802,13 +822,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA28"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:AA28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1023,67 +1048,67 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
         <v>46</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>47</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>48</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>52</v>
       </c>
       <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="187.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" t="s">
         <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>60</v>
       </c>
@@ -1096,272 +1121,308 @@
       <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="B19" t="s">
-        <v>67</v>
-      </c>
-      <c r="C19" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="F19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" t="s">
         <v>79</v>
       </c>
-      <c r="F21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="100.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" t="s">
         <v>82</v>
       </c>
       <c r="F22" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="93.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="D25" s="3" t="s">
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" t="s">
         <v>88</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" t="s">
+        <v>103</v>
+      </c>
+      <c r="G25" t="s">
         <v>89</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="H25" t="s">
         <v>90</v>
       </c>
-      <c r="H25" s="3" t="s">
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-    </row>
-    <row r="26" spans="1:27" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="3" t="s">
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="E26" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" t="s">
+        <v>104</v>
+      </c>
+      <c r="G26" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" t="s">
         <v>87</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="3" t="s">
+      <c r="D27" t="s">
         <v>96</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-    </row>
-    <row r="27" spans="1:27" ht="225.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
+      <c r="E27" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="F27" t="s">
+        <v>105</v>
+      </c>
+      <c r="G27" t="s">
+        <v>98</v>
+      </c>
+      <c r="H27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>99</v>
+      </c>
+      <c r="B28" t="s">
         <v>86</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C28" t="s">
         <v>87</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F27" s="3" t="s">
+      <c r="D28" t="s">
         <v>100</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="E28" t="s">
         <v>101</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
-      <c r="R27" s="3"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
-      <c r="U27" s="3"/>
-      <c r="V27" s="3"/>
-      <c r="W27" s="3"/>
-      <c r="X27" s="3"/>
-      <c r="Y27" s="3"/>
-      <c r="Z27" s="3"/>
-      <c r="AA27" s="3"/>
-    </row>
-    <row r="28" spans="1:27" ht="80.400000000000006" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
+      <c r="F28" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
+      <c r="H28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C31" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" t="s">
+        <v>114</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FD8094-0693-4147-B37D-04D8183CEAE3}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="6" max="6" width="32.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>121</v>
+      </c>
+      <c r="G2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69A424BE-1793-4AA5-A723-395095DD15BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C02C242-28F5-4573-B98E-EA76EB75ECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Project data" sheetId="2" r:id="rId2"/>
+    <sheet name="project" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
   <si>
     <t>TC ID</t>
   </si>
@@ -42,6 +42,9 @@
   </si>
   <si>
     <t>Status</t>
+  </si>
+  <si>
+    <t>Not Executed</t>
   </si>
   <si>
     <t>Remarks</t>
@@ -347,12 +350,12 @@
     <t>Search document category</t>
   </si>
   <si>
+    <t>email:superadmin,password:superadmin,name:bbbrrrrr</t>
+  </si>
+  <si>
     <t>Enter keyword in Search field</t>
   </si>
   <si>
-    <t>Not Executed</t>
-  </si>
-  <si>
     <t>DC_02</t>
   </si>
   <si>
@@ -362,6 +365,9 @@
     <t>Click Add New → Enter valid details → Click Save</t>
   </si>
   <si>
+    <t>email:superadmin,password:superadmin,categoryType:QUALITY,parentCategory:3,displayOrder:11,description:Automation add category</t>
+  </si>
+  <si>
     <t>Document category is created successfully</t>
   </si>
   <si>
@@ -374,6 +380,9 @@
     <t>Click Edit icon → Update details → Click Save</t>
   </si>
   <si>
+    <t>email:superadmin,password:superadmin,search:data srikari,name:impetussolutions ramus,description:Automation updated category</t>
+  </si>
+  <si>
     <t>Document category is updated successfully</t>
   </si>
   <si>
@@ -386,21 +395,12 @@
     <t>Click Delete icon → Confirm deletion</t>
   </si>
   <si>
+    <t>email:superadmin,password:superadmin,search:jjjjj</t>
+  </si>
+  <si>
     <t>Document category is deleted successfully</t>
   </si>
   <si>
-    <t>email:superadmin,password:superadmin,name:bbbrrrrr</t>
-  </si>
-  <si>
-    <t>email:superadmin,password:superadmin,categoryType:QUALITY,parentCategory:3,displayOrder:11,description:Automation add category</t>
-  </si>
-  <si>
-    <t>email:superadmin,password:superadmin,search:data srikari,name:impetussolutions ramus,description:Automation updated category</t>
-  </si>
-  <si>
-    <t>email:superadmin,password:superadmin,search:jjjjj</t>
-  </si>
-  <si>
     <t>users module</t>
   </si>
   <si>
@@ -410,27 +410,7 @@
     <t>users</t>
   </si>
   <si>
-    <t>not Executed</t>
-  </si>
-  <si>
-    <t>USR_02</t>
-  </si>
-  <si>
     <t>Add Uers</t>
-  </si>
-  <si>
-    <t>Edit users</t>
-  </si>
-  <si>
-    <t>user edited successfully</t>
-  </si>
-  <si>
-    <t>email:E04,
-password:superadmin,
-search:EMP80598,
-designation:Manager,
-department:Engineering,
-position:data enginner</t>
   </si>
   <si>
     <t xml:space="preserve">email:E04
@@ -444,26 +424,66 @@
 </t>
   </si>
   <si>
+    <t>not Executed</t>
+  </si>
+  <si>
+    <t>USR_02</t>
+  </si>
+  <si>
+    <t>Edit users</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+search:EMP80598,
+designation:Manager,
+department:Engineering,
+position:data enginner</t>
+  </si>
+  <si>
+    <t>user edited successfully</t>
+  </si>
+  <si>
     <t>PRJ_01</t>
   </si>
   <si>
     <t>project</t>
   </si>
   <si>
-    <t>Add New</t>
-  </si>
-  <si>
-    <t>Click + New button</t>
+    <t>Add project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login into Application 
+Click on Project Module 
+Click on +Project
+</t>
   </si>
   <si>
     <t>Project Created Successfully</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+po_no:PRJ_MPA_2026,
+project_name:Mission Project Alpha,
+customer:laxkshmi
+pdc_day:27,
+engineer:ramalaxmi,
+product1_id:275,
+product1_desc:Base product,
+product1_qty:2,
+product2_id:284,
+product2_name:Avionics Control System,
+product2_desc:Secondary product,
+product2_qty:4,
+remark:Initial project creation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -474,7 +494,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -485,7 +513,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -495,30 +523,43 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -612,6 +653,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -646,6 +688,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -669,7 +712,6 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
                 <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
@@ -680,31 +722,31 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
+                <a:tint val="51000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="15000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
+                <a:tint val="94000"/>
                 <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
+              <a:shade val="9500"/>
               <a:satMod val="105000"/>
             </a:schemeClr>
           </a:solidFill>
@@ -726,7 +768,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -784,7 +826,7 @@
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
+                <a:tint val="20000"/>
                 <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
@@ -797,13 +839,12 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
                 <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
+                <a:tint val="80000"/>
                 <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
@@ -822,20 +863,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="5" width="58.6640625" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="58.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -848,7 +894,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -858,527 +904,537 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" t="s">
+        <v>87</v>
+      </c>
+      <c r="C25" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+      <c r="H25" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
-      <c r="D14" t="s">
-        <v>53</v>
-      </c>
-      <c r="E14" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D15" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E20" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" t="s">
-        <v>78</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E22" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>85</v>
-      </c>
-      <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
+    <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B26" t="s">
         <v>87</v>
       </c>
-      <c r="D25" t="s">
+      <c r="C26" t="s">
         <v>88</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" t="s">
         <v>88</v>
       </c>
-      <c r="F25" t="s">
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" t="s">
         <v>103</v>
       </c>
-      <c r="G25" t="s">
-        <v>89</v>
-      </c>
-      <c r="H25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>91</v>
-      </c>
-      <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>87</v>
-      </c>
-      <c r="D26" t="s">
-        <v>92</v>
-      </c>
-      <c r="E26" t="s">
-        <v>93</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E28" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="G26" t="s">
-        <v>94</v>
-      </c>
-      <c r="H26" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>96</v>
-      </c>
-      <c r="E27" t="s">
-        <v>97</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>105</v>
       </c>
-      <c r="G27" t="s">
-        <v>98</v>
-      </c>
-      <c r="H27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>99</v>
-      </c>
-      <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E28" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>106</v>
       </c>
-      <c r="G28" t="s">
-        <v>102</v>
-      </c>
       <c r="H28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31" spans="1:8" s="3" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="E31" s="2" t="s">
+    </row>
+    <row r="32" spans="1:8" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="F31" t="s">
-        <v>75</v>
-      </c>
-      <c r="G31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>111</v>
-      </c>
-      <c r="B32" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" t="s">
-        <v>110</v>
+      <c r="G32" s="3" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2FD8094-0693-4147-B37D-04D8183CEAE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" customWidth="1"/>
-    <col min="2" max="2" width="36.77734375" customWidth="1"/>
-    <col min="3" max="3" width="26.44140625" customWidth="1"/>
-    <col min="4" max="4" width="36.21875" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="32.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1402,7 +1458,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="41.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -1412,14 +1468,14 @@
       <c r="C2" t="s">
         <v>119</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>120</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>122</v>
       </c>
       <c r="F2" t="s">
         <v>121</v>
-      </c>
-      <c r="G2" t="s">
-        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb95a6004d42690d/Desktop/AMS_auto/AMS_PSMS_AUTOMATION/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C02C242-28F5-4573-B98E-EA76EB75ECD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{8269555E-84E1-40FE-A085-126BDDE6A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B3F739C-1CD8-4963-8C21-FAE96A5B3128}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="project" sheetId="2" r:id="rId2"/>
+    <sheet name="Product" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
   <si>
     <t>TC ID</t>
   </si>
@@ -477,6 +478,21 @@
 product2_desc:Secondary product,
 product2_qty:4,
 remark:Initial project creation</t>
+  </si>
+  <si>
+    <t>PRD_01</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Add Product</t>
+  </si>
+  <si>
+    <t>Product created successfully</t>
+  </si>
+  <si>
+    <t>Email:E07, Password:superadmin, product_name:product2, category:Mechanical, status:Draft, description:test product</t>
   </si>
 </sst>
 </file>
@@ -576,6 +592,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1419,8 +1439,8 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,4 +1501,60 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E9191-43A8-478B-A6A5-F18745AD0F2C}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb95a6004d42690d/Desktop/AMS_auto/AMS_PSMS_AUTOMATION/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{8269555E-84E1-40FE-A085-126BDDE6A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B3F739C-1CD8-4963-8C21-FAE96A5B3128}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D10025E-4C95-4B95-BD48-50B92A18C9F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="138">
   <si>
     <t>TC ID</t>
   </si>
@@ -494,12 +494,60 @@
   <si>
     <t>Email:E07, Password:superadmin, product_name:product2, category:Mechanical, status:Draft, description:test product</t>
   </si>
+  <si>
+    <t>PRJ_02</t>
+  </si>
+  <si>
+    <t>PRJ_03</t>
+  </si>
+  <si>
+    <t>Edit Project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Tree Expansion </t>
+  </si>
+  <si>
+    <t>Login into Application 
+Click on Project Module 
+Click on +Project
+Select The Project
+Click on Edit</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+pdc_day:28,
+customer:lakshmi m ,
+remark:good</t>
+  </si>
+  <si>
+    <t>Project Updated Successfully</t>
+  </si>
+  <si>
+    <t>Login into Application 
+Click on Project Module 
+Click on +Project
+Select The Project
+Click on Tree</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+tree_path:Strategic Project Tracking System&gt;
+Mission Project Tracking&gt;
+Prototype Development Phase&gt;
+Prototype Assembly &amp;&gt;
+Hardware Assembly Verification</t>
+  </si>
+  <si>
+    <t>Project  Tree expaned successfully</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -519,6 +567,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1437,10 +1491,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1498,7 +1552,48 @@
         <v>121</v>
       </c>
     </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F4" t="s">
+        <v>137</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1507,7 +1602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E9191-43A8-478B-A6A5-F18745AD0F2C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb95a6004d42690d/Desktop/AMS_auto/AMS_PSMS_AUTOMATION/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{8269555E-84E1-40FE-A085-126BDDE6A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B3F739C-1CD8-4963-8C21-FAE96A5B3128}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="6_{8269555E-84E1-40FE-A085-126BDDE6A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C765C2E-BCA1-49FC-A982-885C260F81C5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -492,7 +492,8 @@
     <t>Product created successfully</t>
   </si>
   <si>
-    <t>Email:E07, Password:superadmin, product_name:product2, category:Mechanical, status:Draft, description:test product</t>
+    <t>Email:E07, Password:superadmin, product_name:product2, category_index:1,
+status_index:0, description:test product</t>
   </si>
 </sst>
 </file>
@@ -889,7 +890,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1508,10 +1509,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="20.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1537,7 +1541,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -1547,7 +1551,7 @@
       <c r="C2" t="s">
         <v>125</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>127</v>
       </c>
       <c r="F2" t="s">

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb95a6004d42690d/Desktop/AMS_auto/AMS_PSMS_AUTOMATION/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="18" documentId="6_{8269555E-84E1-40FE-A085-126BDDE6A785}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C765C2E-BCA1-49FC-A982-885C260F81C5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFD3E8-04F2-4A34-BC30-2229DD8CFC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3732" yWindow="3360" windowWidth="17280" windowHeight="8880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="696" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
   <si>
     <t>TC ID</t>
   </si>
@@ -241,12 +241,6 @@
   </si>
   <si>
     <t>update the machine</t>
-  </si>
-  <si>
-    <t>Email:superadmin,
-Password:superadmin,
-Machine_code:Machines234,
-Location:hyd-telangana</t>
   </si>
   <si>
     <t>successfully updated the code</t>
@@ -495,12 +489,55 @@
     <t>Email:E07, Password:superadmin, product_name:product2, category_index:1,
 status_index:0, description:test product</t>
   </si>
+  <si>
+    <t>\5</t>
+  </si>
+  <si>
+    <t>PRJ_02</t>
+  </si>
+  <si>
+    <t>PRJ_03</t>
+  </si>
+  <si>
+    <t>Edit Project</t>
+  </si>
+  <si>
+    <t>Login into Application 
+Click on Project Module 
+Click on +Project</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+pdc_day:28,
+customer:lakshmi m ,
+remark:good</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+tree_path:Strategic Project Tracking System&gt;
+Mission Project Tracking&gt;
+Prototype Development Phase&gt;
+Prototype Assembly &amp;&gt;
+Hardware Assembly Verification</t>
+  </si>
+  <si>
+    <t>Login into Application 
+Click on Project Module 
+Click on +Project
+Select The Project
+Click on Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Tree Expansion </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,6 +557,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -889,7 +932,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A32" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1171,134 +1214,134 @@
         <v>54</v>
       </c>
       <c r="E14" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
-      </c>
-      <c r="F14" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" t="s">
         <v>61</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>63</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="G15" t="s">
         <v>65</v>
-      </c>
-      <c r="G15" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" t="s">
         <v>68</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>69</v>
       </c>
-      <c r="C19" t="s">
+      <c r="E19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" t="s">
         <v>71</v>
-      </c>
-      <c r="F19" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" t="s">
         <v>73</v>
       </c>
-      <c r="B20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="E20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" t="s">
         <v>75</v>
-      </c>
-      <c r="F20" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
         <v>77</v>
       </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="E21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" t="s">
         <v>79</v>
-      </c>
-      <c r="F21" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>80</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
         <v>81</v>
       </c>
-      <c r="B22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="E22" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" t="s">
         <v>83</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" t="s">
         <v>86</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>87</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>88</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
         <v>89</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>90</v>
-      </c>
-      <c r="G25" t="s">
-        <v>91</v>
       </c>
       <c r="H25" t="s">
         <v>7</v>
@@ -1306,25 +1349,25 @@
     </row>
     <row r="26" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C26" t="s">
+        <v>87</v>
+      </c>
+      <c r="D26" t="s">
         <v>92</v>
       </c>
-      <c r="B26" t="s">
-        <v>87</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="F26" t="s">
         <v>94</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>95</v>
-      </c>
-      <c r="G26" t="s">
-        <v>96</v>
       </c>
       <c r="H26" t="s">
         <v>7</v>
@@ -1332,25 +1375,25 @@
     </row>
     <row r="27" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" t="s">
         <v>97</v>
       </c>
-      <c r="B27" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E27" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="F27" t="s">
         <v>99</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>100</v>
-      </c>
-      <c r="G27" t="s">
-        <v>101</v>
       </c>
       <c r="H27" t="s">
         <v>7</v>
@@ -1358,25 +1401,25 @@
     </row>
     <row r="28" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D28" t="s">
         <v>102</v>
       </c>
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="E28" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="F28" t="s">
         <v>104</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>105</v>
-      </c>
-      <c r="G28" t="s">
-        <v>106</v>
       </c>
       <c r="H28" t="s">
         <v>7</v>
@@ -1385,47 +1428,47 @@
     <row r="29" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="30" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="3" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="C31" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="3" customFormat="1" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="G32" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1438,10 +1481,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,25 +1524,60 @@
     </row>
     <row r="2" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" t="s">
         <v>120</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F2" t="s">
-        <v>121</v>
+    </row>
+    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1508,8 +1586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E9191-43A8-478B-A6A5-F18745AD0F2C}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1543,19 +1621,19 @@
     </row>
     <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F2" t="s">
         <v>125</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" t="s">
-        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8DFD3E8-04F2-4A34-BC30-2229DD8CFC46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE16EA9-50CE-41E0-AA6F-FBFDB0472FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="696" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
   <si>
     <t>TC ID</t>
   </si>
@@ -514,23 +514,49 @@
 remark:good</t>
   </si>
   <si>
+    <t>Login into Application 
+Click on Project Module 
+Click on +Project
+Select The Project
+Click on Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project Tree Expansion </t>
+  </si>
+  <si>
     <t>email:E04,
 password:superadmin,
 tree_path:Strategic Project Tracking System&gt;
 Mission Project Tracking&gt;
 Prototype Development Phase&gt;
-Prototype Assembly &amp;&gt;
+Prototype Assembly &gt;
 Hardware Assembly Verification</t>
   </si>
   <si>
-    <t>Login into Application 
-Click on Project Module 
-Click on +Project
-Select The Project
-Click on Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project Tree Expansion </t>
+    <t>PRJ_04</t>
+  </si>
+  <si>
+    <t>Add Product for  Project</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+project_name:Strategic Project Tracking,
+product:sample product,
+delivery_day:28,
+quantity:25,
+unit:kg,
+remarks:good,
+file_path:UserReport.pdf</t>
+  </si>
+  <si>
+    <t>email:E04,password:superadmin,project_name:Mission Project Tracking,milestone_name:mission planed approval,start_day:30,end_day:31,remarks:good,file_path:UserReport.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add Milestone </t>
+  </si>
+  <si>
+    <t>PRJ_05</t>
   </si>
 </sst>
 </file>
@@ -607,7 +633,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,6 +646,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1481,10 +1510,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,7 +1551,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1567,13 +1596,47 @@
         <v>117</v>
       </c>
       <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>133</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>141</v>
+      </c>
+      <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb95a6004d42690d/Desktop/AMS_auto/AMS_PSMS_AUTOMATION/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE16EA9-50CE-41E0-AA6F-FBFDB0472FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8FE16EA9-50CE-41E0-AA6F-FBFDB0472FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F879E1A-CDD1-4042-9FFE-5A71EF277CBA}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="162">
   <si>
     <t>TC ID</t>
   </si>
@@ -558,12 +558,92 @@
   <si>
     <t>PRJ_05</t>
   </si>
+  <si>
+    <t xml:space="preserve">Locator.click: Timeout 30000ms exceeded.
+Call log:
+  - waiting for get_by_role("link", name="Products")
+</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Task created successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email:E07
+Password:superadmin
+task_name:Task_1706778452
+task_code:TC_8392
+sequence_order:1
+weightage:75
+default_duration:15
+remarks:Test Task </t>
+  </si>
+  <si>
+    <t>1. Login to application
+2. Navigate to Task screen
+3. Click on + Add Task button
+4. Enter valid task details
+5. Upload input file (optional)
+6. Click on Save button</t>
+  </si>
+  <si>
+    <t>Add Task</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>PRD_05</t>
+  </si>
+  <si>
+    <t>User assigned successfully</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Email:E07, Password:superadmin, product_name:product2, user_index:0, role_index:1</t>
+  </si>
+  <si>
+    <t>Assign User</t>
+  </si>
+  <si>
+    <t>PRD_04</t>
+  </si>
+  <si>
+    <t>Milestone created successfully</t>
+  </si>
+  <si>
+    <t>"Email:E07, Password:superadmin, milestone_name:Design Phase, milestone_code:MS-001, weightage:20, remarks:Initial design milestone"</t>
+  </si>
+  <si>
+    <t>1. Login as Super Admin
+2. Navigate to Product → Milestone section
+3. Click on + Add Milestone button
+4. Enter Milestone Name, Milestone Code, Weightage
+5. Enter remarks
+6. Click on Save</t>
+  </si>
+  <si>
+    <t>Add Milestone</t>
+  </si>
+  <si>
+    <t>Milestone</t>
+  </si>
+  <si>
+    <t>PRD_03</t>
+  </si>
+  <si>
+    <t>PRD_02</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -590,6 +670,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -599,7 +684,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -629,11 +714,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -647,8 +747,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,10 +768,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1512,7 +1611,7 @@
   </sheetPr>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -1647,10 +1746,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E9191-43A8-478B-A6A5-F18745AD0F2C}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1659,30 +1758,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>122</v>
       </c>
@@ -1692,11 +1793,100 @@
       <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>126</v>
       </c>
       <c r="F2" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" t="s">
+        <v>153</v>
+      </c>
+      <c r="E3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F4" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" t="s">
+        <v>151</v>
+      </c>
+      <c r="H5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H6" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/cb95a6004d42690d/Desktop/AMS_auto/AMS_PSMS_AUTOMATION/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ams_psms_automation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{8FE16EA9-50CE-41E0-AA6F-FBFDB0472FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F879E1A-CDD1-4042-9FFE-5A71EF277CBA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C4B1D-5D80-44CF-BE82-208F6A3AC639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="173">
   <si>
     <t>TC ID</t>
   </si>
@@ -638,12 +638,80 @@
   <si>
     <t>PRD_02</t>
   </si>
+  <si>
+    <t>PRJ_06</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+project_name:Strategic Project Tracking,
+mission_name:Mission Project Tracking,
+phase_name:Prototype Development Phase,
+task_name:task 1,
+priority:Medium,
+complexity:Medium,
+remarks:good,
+file_path:uploads/UserReport.pdf</t>
+  </si>
+  <si>
+    <t>Task Added successfully</t>
+  </si>
+  <si>
+    <t>PRJ_07</t>
+  </si>
+  <si>
+    <t>Add Subtask</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+project_name:Strategic Project Tracking,
+mission_name:Mission Project Tracking,
+phase_name:Prototype Development Phase,
+task_name:Prototype Assembly,
+subtask_name:subtask 1,
+start_day:2,
+end_day:5,
+assign_to:Jaya,
+assignee:Kalyan,
+shift:Morning Shift,
+priority:Medium,
+complexity:Medium,
+remarks:good,
+file_path:uploads/UserReport.pdf</t>
+  </si>
+  <si>
+    <t>Subtask Added successfully</t>
+  </si>
+  <si>
+    <t>PRJ_08</t>
+  </si>
+  <si>
+    <t>Add Worklog</t>
+  </si>
+  <si>
+    <t>email:E04,
+password:superadmin,
+project_name:Strategic Project Tracking,
+mission_name:Mission Project Tracking,
+phase_name:Prototype Development Phase,
+task_name:Prototype Assembly,
+subtask_name:Hardware Assembly Verification,
+worklog_day:2,
+time_spent:4,
+work_description:good,
+remarks:good,
+file_path:uploads/UserReport.pdf</t>
+  </si>
+  <si>
+    <t>Worklog Added Successfully</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,6 +743,12 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -684,7 +758,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -729,11 +803,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -752,6 +841,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1609,10 +1704,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:Z9"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:Z9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1626,7 +1721,7 @@
     <col min="7" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +1745,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -1670,7 +1765,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -1687,7 +1782,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1704,7 +1799,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="144" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>136</v>
       </c>
@@ -1721,7 +1816,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="101.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>141</v>
       </c>
@@ -1737,10 +1832,131 @@
       <c r="E6" s="5" t="s">
         <v>139</v>
       </c>
+    </row>
+    <row r="7" spans="1:26" ht="172.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+    </row>
+    <row r="8" spans="1:26" ht="252" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+    </row>
+    <row r="9" spans="1:26" ht="212.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1748,7 +1964,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{114E9191-43A8-478B-A6A5-F18745AD0F2C}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
